--- a/articulo 1 XAI/data_valencia_comunity/Resultados salida/2_metrics_SVM.xlsx
+++ b/articulo 1 XAI/data_valencia_comunity/Resultados salida/2_metrics_SVM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/articulo 1 XAI/data_valencia_comunity/Resultados salida/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_C2CE23B408D7D252EBC39D5F060A53129275BA68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CFD19F9-3760-41E8-A89F-E3F16ED6229E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_C2CE23B4ECEF141165C19F5F060A53129275BA6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32780136-6C9F-4E1E-B397-4B34372F2B4D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31905" yWindow="0" windowWidth="21600" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -390,12 +390,13 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -438,37 +439,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.89024390243902396</v>
+        <v>0.91463414634146301</v>
       </c>
       <c r="B2" s="1">
-        <v>0.95530726256983201</v>
+        <v>0.93854748603352001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.90123456790123502</v>
+        <v>0.87209302325581395</v>
       </c>
       <c r="D2" s="1">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E2" s="1">
-        <v>0.90123456790123502</v>
+        <v>0.87209302325581395</v>
       </c>
       <c r="F2" s="1">
-        <v>0.89024390243902396</v>
+        <v>0.91463414634146301</v>
       </c>
       <c r="G2" s="1">
-        <v>0.89570552147239302</v>
+        <v>0.89285714285714302</v>
       </c>
       <c r="H2" s="1">
         <v>0.31417624521072801</v>
       </c>
       <c r="I2" s="1">
-        <v>0.27969348659003801</v>
+        <v>0.28735632183908</v>
       </c>
       <c r="J2" s="1">
-        <v>0.31034482758620702</v>
+        <v>0.32950191570881199</v>
       </c>
       <c r="K2" s="1">
-        <v>0.92277558250442804</v>
+        <v>0.92659081618749195</v>
       </c>
     </row>
   </sheetData>
